--- a/RL2/PresentationGraph.xlsx
+++ b/RL2/PresentationGraph.xlsx
@@ -1,21 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranavpatil/Documents/MS/Spring2020/CMPE275/RL_1/RL2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD68894-E7B3-0E4D-8564-DE3F28920FAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538C5E10-AD04-D14C-A520-9A101EECB690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C9613A09-2A36-514F-B8B2-EA7AA2B33ACB}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="1" xr2:uid="{C9613A09-2A36-514F-B8B2-EA7AA2B33ACB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$U$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$U$4:$U$10</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$W$3</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet2!$W$4:$W$10</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$V$3</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$V$4:$V$10</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$W$3</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$W$4:$W$10</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$U$3</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$U$4:$U$10</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$V$3</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$V$4:$V$10</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="11">
   <si>
     <t>Run 1 (ms)</t>
   </si>
@@ -52,12 +67,27 @@
   <si>
     <t>Nodes</t>
   </si>
+  <si>
+    <t>Term (AVG)</t>
+  </si>
+  <si>
+    <t>Run (AVG)</t>
+  </si>
+  <si>
+    <t>Run 5 (ms)</t>
+  </si>
+  <si>
+    <t>Time to Term (ms)</t>
+  </si>
+  <si>
+    <t>Run 6 (ms)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -73,6 +103,25 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -98,10 +147,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1529,6 +1587,1736 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Term (avg) vs RUN (avg ms)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> &amp; Time to Term (ms ms)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14044643288471836"/>
+          <c:y val="0.16688269030572364"/>
+          <c:w val="0.82629815233454962"/>
+          <c:h val="0.60784622896426999"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$V$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run (AVG)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$U$4:$U$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$V$4:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3175.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3762.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2953.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3194.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5501.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2186.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22AB-F74B-84B9-A39AFF235C9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$W$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time to Term (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$U$4:$U$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$W$4:$W$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1058.6000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1710.0909090909088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1136.0769230769231</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1451.9090909090908</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1650.5499999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1214.8888888888889</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1470.8235294117649</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-22AB-F74B-84B9-A39AFF235C9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1660047424"/>
+        <c:axId val="1703117376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1660047424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1703117376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1703117376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1660047424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nodes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$15:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$15:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E3B1-7541-8693-D32096F4403F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 1 (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$15:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$15:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1895</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1408</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2980</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E3B1-7541-8693-D32096F4403F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1661198960"/>
+        <c:axId val="1661274912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1661198960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1661274912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1661274912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1661198960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Term (avg) vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Run (avg ms)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14468044619422571"/>
+          <c:y val="0.13294640589281181"/>
+          <c:w val="0.81843066491688532"/>
+          <c:h val="0.68103796877085276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$V$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run (AVG)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$U$4:$U$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$V$4:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3175.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3762.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2953.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3194.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5501.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2186.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF9B-B54B-84EB-02AFF2703C34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1709441920"/>
+        <c:axId val="1706467712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1709441920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1706467712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1706467712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1709441920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Term (avg) vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time to Term (avg ms)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15579155730533686"/>
+          <c:y val="0.15848307423110572"/>
+          <c:w val="0.80731955380577425"/>
+          <c:h val="0.66632513923564429"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$W$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time to Term (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$U$4:$U$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$W$4:$W$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1058.6000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1710.0909090909088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1136.0769230769231</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1451.9090909090908</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1650.5499999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1214.8888888888889</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1470.8235294117649</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C3E3-7949-ABD9-9E67C5C3DE5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1705556336"/>
+        <c:axId val="1706011280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1705556336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1706011280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1706011280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1705556336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1609,6 +3397,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2126,6 +4074,2070 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2713,6 +6725,505 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>67734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>207435</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>45156</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96EB6765-B366-DA4C-A488-DCE0AC78A55A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{020EBB18-05F7-4548-A2A0-603AF7B10784}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CEEA5E1-A68C-E246-86C2-AC330AD1E139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E0F25D-0DB5-A44F-9085-126D7C86ABCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A6738A-D6E0-D549-A5BB-C9F14A96F786}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22352000" y="5727700"/>
+          <a:ext cx="977900" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Term (avg)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{220BFE6D-722A-B347-871F-4D13A306C2BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27533600" y="5702300"/>
+          <a:ext cx="977900" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Term (avg)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F7A9084-5A64-9343-AA35-1EE71ECA0955}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="14478000" y="4025900"/>
+          <a:ext cx="977900" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Time (ms)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F373E5-4E89-9E44-8B37-98B7C93CBF67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="19977100" y="4191000"/>
+          <a:ext cx="977900" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Time (ms)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B687C9-7E21-FB4D-808F-605159CDDD30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="25120600" y="4178300"/>
+          <a:ext cx="977900" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Time (ms)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3017,8 +7528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E83C51-B29E-0B4E-89E3-47606C34FB29}">
   <dimension ref="C5:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="A2" zoomScale="107" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3247,4 +7758,664 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122A4340-D895-D742-A904-00E7EB15D230}">
+  <dimension ref="B3:X30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="17" width="10.83203125" style="3"/>
+    <col min="20" max="20" width="15" customWidth="1"/>
+    <col min="23" max="23" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1895</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5895</v>
+      </c>
+      <c r="I4" s="3">
+        <v>5</v>
+      </c>
+      <c r="J4" s="3">
+        <v>4</v>
+      </c>
+      <c r="K4" s="3">
+        <v>3701</v>
+      </c>
+      <c r="L4" s="3">
+        <v>5</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1408</v>
+      </c>
+      <c r="O4" s="3">
+        <v>5</v>
+      </c>
+      <c r="P4" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>2980</v>
+      </c>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4">
+        <f>AVERAGE(D4,G4,J4,M4,P4)</f>
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <f>AVERAGE(E4,H4,K4,N4,Q4)</f>
+        <v>3175.8</v>
+      </c>
+      <c r="W4">
+        <f>V4/U4</f>
+        <v>1058.6000000000001</v>
+      </c>
+      <c r="X4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C5" s="3">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>948</v>
+      </c>
+      <c r="F5" s="3">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1911</v>
+      </c>
+      <c r="I5" s="3">
+        <v>25</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>5830</v>
+      </c>
+      <c r="L5" s="3">
+        <v>25</v>
+      </c>
+      <c r="M5" s="3">
+        <v>5</v>
+      </c>
+      <c r="N5" s="3">
+        <v>8081</v>
+      </c>
+      <c r="O5" s="3">
+        <v>25</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>2041</v>
+      </c>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5">
+        <f t="shared" ref="U5:U10" si="0">AVERAGE(D5,G5,J5,M5,P5)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ref="V5:V10" si="1">AVERAGE(E5,H5,K5,N5,Q5)</f>
+        <v>3762.2</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ref="W5:W10" si="2">V5/U5</f>
+        <v>1710.0909090909088</v>
+      </c>
+      <c r="X5" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C6" s="3">
+        <v>125</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5537</v>
+      </c>
+      <c r="F6" s="3">
+        <v>125</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3427</v>
+      </c>
+      <c r="I6" s="3">
+        <v>125</v>
+      </c>
+      <c r="J6" s="3">
+        <v>4</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2341</v>
+      </c>
+      <c r="L6" s="3">
+        <v>125</v>
+      </c>
+      <c r="M6" s="3">
+        <v>2</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1674</v>
+      </c>
+      <c r="O6" s="3">
+        <v>125</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1790</v>
+      </c>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="1"/>
+        <v>2953.8</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="2"/>
+        <v>1136.0769230769231</v>
+      </c>
+      <c r="X6" s="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C7" s="3">
+        <v>250</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2671</v>
+      </c>
+      <c r="F7" s="3">
+        <v>250</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1272</v>
+      </c>
+      <c r="I7" s="3">
+        <v>250</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>891</v>
+      </c>
+      <c r="L7" s="3">
+        <v>250</v>
+      </c>
+      <c r="M7" s="3">
+        <v>6</v>
+      </c>
+      <c r="N7" s="3">
+        <v>10280</v>
+      </c>
+      <c r="O7" s="3">
+        <v>250</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>857</v>
+      </c>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>3194.2</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="2"/>
+        <v>1451.9090909090908</v>
+      </c>
+      <c r="X7" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C8" s="3">
+        <v>500</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3821</v>
+      </c>
+      <c r="F8" s="3">
+        <v>500</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2756</v>
+      </c>
+      <c r="I8" s="3">
+        <v>500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>11</v>
+      </c>
+      <c r="K8" s="3">
+        <v>19624</v>
+      </c>
+      <c r="L8" s="3">
+        <v>500</v>
+      </c>
+      <c r="M8" s="3">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2795</v>
+      </c>
+      <c r="O8" s="3">
+        <v>500</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>2936</v>
+      </c>
+      <c r="R8" s="3">
+        <v>500</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1079</v>
+      </c>
+      <c r="U8">
+        <f>AVERAGE(D8,G8,J8,M8,P8,S8)</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="V8">
+        <f>AVERAGE(E8,H8,K8,N8,Q8, T8)</f>
+        <v>5501.833333333333</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="2"/>
+        <v>1650.5499999999997</v>
+      </c>
+      <c r="X8" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C9" s="3">
+        <v>750</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>762</v>
+      </c>
+      <c r="F9" s="3">
+        <v>750</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1333</v>
+      </c>
+      <c r="I9" s="3">
+        <v>750</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
+        <v>4575</v>
+      </c>
+      <c r="L9" s="3">
+        <v>750</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1395</v>
+      </c>
+      <c r="O9" s="3">
+        <v>750</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>2869</v>
+      </c>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>2186.8000000000002</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="2"/>
+        <v>1214.8888888888889</v>
+      </c>
+      <c r="X9" s="3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3461</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>988</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6</v>
+      </c>
+      <c r="K10" s="3">
+        <v>6680</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="3">
+        <v>2</v>
+      </c>
+      <c r="N10" s="3">
+        <v>2899</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P10" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>10976</v>
+      </c>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>5000.8</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="2"/>
+        <v>1470.8235294117649</v>
+      </c>
+      <c r="X10" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B16" s="3">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5895</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F30" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/RL2/PresentationGraph.xlsx
+++ b/RL2/PresentationGraph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranavpatil/Documents/MS/Spring2020/CMPE275/RL_1/RL2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538C5E10-AD04-D14C-A520-9A101EECB690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E85CB56-1A57-EE49-AD6A-C914BB5B77C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="1" xr2:uid="{C9613A09-2A36-514F-B8B2-EA7AA2B33ACB}"/>
   </bookViews>
@@ -16,20 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$U$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$U$4:$U$10</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$W$3</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet2!$W$4:$W$10</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$V$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$V$4:$V$10</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$W$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$W$4:$W$10</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$U$3</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$U$4:$U$10</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$V$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$V$4:$V$10</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -77,10 +63,10 @@
     <t>Run 5 (ms)</t>
   </si>
   <si>
-    <t>Time to Term (ms)</t>
+    <t>Run 6 (ms)</t>
   </si>
   <si>
-    <t>Run 6 (ms)</t>
+    <t>Time to Election (ms)</t>
   </si>
 </sst>
 </file>
@@ -1789,7 +1775,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time to Term (ms)</c:v>
+                  <c:v>Time to Election (ms)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2977,7 +2963,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Time to Term (avg ms)</a:t>
+              <a:t>Time to Election (avg ms)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3036,7 +3022,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time to Term (ms)</c:v>
+                  <c:v>Time to Election (ms)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3273,6 +3259,556 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Term (avg) vs RUN (avg ms) &amp; Time to Term (ms ms)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15353411258375313"/>
+          <c:y val="9.4420600858369105E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16131136024353834"/>
+          <c:y val="0.23814516129032259"/>
+          <c:w val="0.80577661992994365"/>
+          <c:h val="0.5720427990855983"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$V$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run (AVG)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$U$4:$U$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$V$4:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3175.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3762.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2953.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3194.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5501.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2186.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F45-A54F-B68D-98B0447DBF41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$W$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time to Election (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$U$4:$U$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$W$4:$W$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1058.6000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1710.0909090909088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1136.0769230769231</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1451.9090909090908</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1650.5499999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1214.8888888888889</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1470.8235294117649</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0F45-A54F-B68D-98B0447DBF41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1831252399"/>
+        <c:axId val="1832893711"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1831252399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1832893711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1832893711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1831252399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3557,6 +4093,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6138,6 +6714,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7226,6 +8318,112 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7371A28F-D411-A247-8618-3A595B69C494}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5336C13-57F3-C94B-B1C3-BFE7ECD1D255}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="14503400" y="7632700"/>
+          <a:ext cx="977900" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Time (ms)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7764,8 +8962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122A4340-D895-D742-A904-00E7EB15D230}">
   <dimension ref="B3:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+    <sheetView tabSelected="1" topLeftCell="U4" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7829,7 +9027,7 @@
         <v>4</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U3" s="3" t="s">
         <v>6</v>
@@ -7838,7 +9036,7 @@
         <v>7</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X3" s="3" t="s">
         <v>5</v>
